--- a/documentation/QualityManagement/GuardResults.xlsx
+++ b/documentation/QualityManagement/GuardResults.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Joacim Eberlen</t>
   </si>
@@ -91,7 +91,31 @@
     <t>Sprint 5</t>
   </si>
   <si>
-    <t>Problem 1</t>
+    <t>Issue 1</t>
+  </si>
+  <si>
+    <t>Issue 2</t>
+  </si>
+  <si>
+    <t>Control.java</t>
+  </si>
+  <si>
+    <t>Issue 3</t>
+  </si>
+  <si>
+    <t>Complexity was 19 for an onMoveListener. It was believed that it is not possible to improve it</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Sprint6_06.05.2017</t>
+  </si>
+  <si>
+    <t>MapsActivity.java</t>
+  </si>
+  <si>
+    <t>Block Depth</t>
   </si>
 </sst>
 </file>
@@ -185,15 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -222,16 +243,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,237 +568,315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documentation/QualityManagement/GuardResults.xlsx
+++ b/documentation/QualityManagement/GuardResults.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Joacim Eberlen</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Block Depth</t>
+  </si>
+  <si>
+    <t>Block depth was 7 , which was the threshold. Since it didn't go over it was decided to leave it without refactoring</t>
   </si>
 </sst>
 </file>
@@ -558,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,11 +859,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
